--- a/biology/Médecine/Gordon_Guyatt/Gordon_Guyatt.xlsx
+++ b/biology/Médecine/Gordon_Guyatt/Gordon_Guyatt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gordon Henry Guyatt (né le 11 novembre 1953) est un médecin et professeur universitaire canadien. Il enseigne à l'Université McMaster d'Hamilton (Ontario). Il est connu pour son influence sur la médecine fondée sur les faits, qu'il a baptisée en 1991[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gordon Henry Guyatt (né le 11 novembre 1953) est un médecin et professeur universitaire canadien. Il enseigne à l'Université McMaster d'Hamilton (Ontario). Il est connu pour son influence sur la médecine fondée sur les faits, qu'il a baptisée en 1991,.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Guyatt naît et grandit à Hamilton, ville de l'Ontario où se trouve également l'Université McMaster.
 Il fréquente l'Université de Toronto, de laquelle il obtient un BSc. Il devient par la suite docteur en médecine à la McMaster University Medical School (en), et est certifié interne général. Plus tard, Guyatt obtient une MSc en Health Research Methodology de l'Université McMaster.
-Guyatt épouse Maureen Meade[3], avec qui il a trois filles : Robyn, Paige et Claire Guyatt.
+Guyatt épouse Maureen Meade, avec qui il a trois filles : Robyn, Paige et Claire Guyatt.
 </t>
         </is>
       </c>
